--- a/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
+++ b/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
@@ -90,64 +90,64 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Developing "model of best practice"</t>
+  </si>
+  <si>
+    <t>EurActiv Report</t>
+  </si>
+  <si>
+    <t>http://www.euractiv.com/sections/development-policy/civil-registration-africas-greatest-development-failure-holds-key-her</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>UN High Commissioner for Refugees Submission</t>
+  </si>
+  <si>
+    <t>http://www.refworld.org/pdfid/51b823064.pdf</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Developing "model of best practice"</t>
-  </si>
-  <si>
-    <t>EurActiv Report</t>
-  </si>
-  <si>
-    <t>http://www.euractiv.com/sections/development-policy/civil-registration-africas-greatest-development-failure-holds-key-her</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>UN High Commissioner for Refugees Submission</t>
-  </si>
-  <si>
-    <t>http://www.refworld.org/pdfid/51b823064.pdf</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>DJ</t>
@@ -327,7 +327,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -459,7 +459,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1043,36 +1043,36 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1109,18 +1109,18 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1129,10 +1129,10 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1323,7 +1323,7 @@
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -1383,7 +1383,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>66</v>
@@ -1465,10 +1465,10 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -1555,7 +1555,7 @@
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
         <v>92</v>
@@ -1969,7 +1969,7 @@
         <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
         <v>66</v>

--- a/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
+++ b/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization African Health Observatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.aho.afro.who.int/profiles_information/index.php/AFRO:Civil_registration_and_vital_statistics_systems</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -45,12 +63,21 @@
     <t xml:space="preserve">No CR data used for vital statistics</t>
   </si>
   <si>
-    <t xml:space="preserve">World Health Organization African Health Observatory</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.aho.afro.who.int/profiles_information/images/0/09/Percentag_civil_registration_death.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -63,16 +90,70 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing "model of best practice"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EurActiv Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.euractiv.com/sections/development-policy/civil-registration-africas-greatest-development-failure-holds-key-her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -81,69 +162,6 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developing "model of best practice"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EurActiv Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.euractiv.com/sections/development-policy/civil-registration-africas-greatest-development-failure-holds-key-her</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.aho.afro.who.int/profiles_information/index.php/AFRO:Civil_registration_and_vital_statistics_systems</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -159,262 +177,244 @@
     <t xml:space="preserve">http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Satisfactory"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.globalsummitoncrvs.org/pdf/EMRORapidAssessmentReport21March.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
     <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Satisfactory"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.globalsummitoncrvs.org/pdf/EMRORapidAssessmentReport21March.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 80%</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -927,476 +927,476 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -1407,16 +1407,16 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1427,16 +1427,16 @@
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1447,10 +1447,10 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1463,112 +1463,112 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
         <v>86</v>
       </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>90</v>
-      </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
         <v>92</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -1579,16 +1579,16 @@
         <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -1599,16 +1599,16 @@
         <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1619,16 +1619,16 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1639,16 +1639,16 @@
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -1659,16 +1659,16 @@
         <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -1679,17 +1679,13 @@
         <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s">
-        <v>42</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1699,16 +1695,16 @@
         <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1739,16 +1735,16 @@
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1759,16 +1755,16 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1782,167 +1778,171 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51"/>
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>128</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E52"/>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -1953,16 +1953,16 @@
         <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -1973,16 +1973,16 @@
         <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
+++ b/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization African Health Observatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.aho.afro.who.int/profiles_information/index.php/AFRO:Civil_registration_and_vital_statistics_systems</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -45,12 +63,21 @@
     <t xml:space="preserve">No CR data used for vital statistics</t>
   </si>
   <si>
-    <t xml:space="preserve">World Health Organization African Health Observatory</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.aho.afro.who.int/profiles_information/images/0/09/Percentag_civil_registration_death.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -63,16 +90,70 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing "model of best practice"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EurActiv Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.euractiv.com/sections/development-policy/civil-registration-africas-greatest-development-failure-holds-key-her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -81,69 +162,6 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developing "model of best practice"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EurActiv Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.euractiv.com/sections/development-policy/civil-registration-africas-greatest-development-failure-holds-key-her</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.aho.afro.who.int/profiles_information/index.php/AFRO:Civil_registration_and_vital_statistics_systems</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -159,262 +177,244 @@
     <t xml:space="preserve">http://213.55.79.31/statcom/2011/assd/EN-PreliminaryReportCRVS.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Satisfactory"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.globalsummitoncrvs.org/pdf/EMRORapidAssessmentReport21March.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
     <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Satisfactory"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.globalsummitoncrvs.org/pdf/EMRORapidAssessmentReport21March.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over 80%</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -927,476 +927,476 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -1407,16 +1407,16 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1427,16 +1427,16 @@
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1447,10 +1447,10 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1463,112 +1463,112 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
         <v>86</v>
       </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>90</v>
-      </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
         <v>92</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -1579,16 +1579,16 @@
         <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -1599,16 +1599,16 @@
         <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1619,16 +1619,16 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1639,16 +1639,16 @@
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -1659,16 +1659,16 @@
         <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -1679,17 +1679,13 @@
         <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s">
-        <v>42</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1699,16 +1695,16 @@
         <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1739,16 +1735,16 @@
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1759,16 +1755,16 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1782,167 +1778,171 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51"/>
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>128</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E52"/>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -1953,16 +1953,16 @@
         <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -1973,16 +1973,16 @@
         <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
+++ b/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -27,10 +27,10 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
-    <t xml:space="preserve">source-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source-link</t>
+    <t xml:space="preserve">source_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_link</t>
   </si>
   <si>
     <t xml:space="preserve">DZ</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">Over 75%</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
+    <t xml:space="preserve">red</t>
   </si>
   <si>
     <t xml:space="preserve">No CR data used for vital statistics</t>
@@ -90,64 +90,64 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing "model of best practice"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EurActiv Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.euractiv.com/sections/development-policy/civil-registration-africas-greatest-development-failure-holds-key-her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developing "model of best practice"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EurActiv Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.euractiv.com/sections/development-policy/civil-registration-africas-greatest-development-failure-holds-key-her</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN High Commissioner for Refugees Submission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.refworld.org/pdfid/51b823064.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">DJ</t>
@@ -432,37 +432,37 @@
     <t xml:space="preserve">Name: civil-reg-deaths</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The percentage of deaths reported in vital statistics where the data is derived from the Civil Registration system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units of measure: NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: WHO African Health Observatory-Civil registration and vital statistics systems.</t>
+    <t xml:space="preserve">Description: The percentage of deaths reported in vital statistics where the data is derived from the Civil Registration system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measure:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -815,15 +815,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -837,31 +841,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1047,36 +1046,36 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1113,18 +1112,18 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1133,10 +1132,10 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1327,7 +1326,7 @@
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -1387,7 +1386,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>66</v>
@@ -1469,10 +1468,10 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -1559,7 +1558,7 @@
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
         <v>92</v>
@@ -1973,7 +1972,7 @@
         <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
         <v>66</v>

--- a/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
+++ b/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
@@ -438,7 +438,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 78</t>
+    <t xml:space="preserve">Source: 79</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
+++ b/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
@@ -438,7 +438,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 79</t>
+    <t xml:space="preserve">Source: 81</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
+++ b/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
@@ -438,7 +438,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 78</t>
+    <t xml:space="preserve">Source: 81</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
+++ b/user-data/civil-reg-deaths/civil-reg-deaths.xlsx
@@ -438,7 +438,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 81</t>
+    <t xml:space="preserve">Source: 80</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
